--- a/db/Sala.xlsx
+++ b/db/Sala.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PosGrado\Proyecto Titulacion\Timetabling\db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Debian\home\andrew\Documents\Proyecto_Titulacion\Timetabling\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0AEFC04-0E60-4C2E-AFEB-7D5EB7756B0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD5C94CA-C973-4B0A-9E8F-EB0D0C4BC324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{4EFD96D6-CF62-4F2F-ABEF-608699C1E5F4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4EFD96D6-CF62-4F2F-ABEF-608699C1E5F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="56">
   <si>
     <t>sala_id</t>
   </si>
@@ -46,16 +46,178 @@
   </si>
   <si>
     <t>tipo_sala</t>
+  </si>
+  <si>
+    <t>F-101</t>
+  </si>
+  <si>
+    <t>F-102</t>
+  </si>
+  <si>
+    <t>F101</t>
+  </si>
+  <si>
+    <t>F102</t>
+  </si>
+  <si>
+    <t>F-103</t>
+  </si>
+  <si>
+    <t>F-104</t>
+  </si>
+  <si>
+    <t>F103</t>
+  </si>
+  <si>
+    <t>F104</t>
+  </si>
+  <si>
+    <t>B101</t>
+  </si>
+  <si>
+    <t>B102</t>
+  </si>
+  <si>
+    <t>B103</t>
+  </si>
+  <si>
+    <t>B104</t>
+  </si>
+  <si>
+    <t>B105</t>
+  </si>
+  <si>
+    <t>B-101</t>
+  </si>
+  <si>
+    <t>B-102</t>
+  </si>
+  <si>
+    <t>B-103</t>
+  </si>
+  <si>
+    <t>B-104</t>
+  </si>
+  <si>
+    <t>B-105</t>
+  </si>
+  <si>
+    <t>B201</t>
+  </si>
+  <si>
+    <t>B202</t>
+  </si>
+  <si>
+    <t>B203</t>
+  </si>
+  <si>
+    <t>B204</t>
+  </si>
+  <si>
+    <t>B205</t>
+  </si>
+  <si>
+    <t>B-201</t>
+  </si>
+  <si>
+    <t>B-202</t>
+  </si>
+  <si>
+    <t>B-203</t>
+  </si>
+  <si>
+    <t>B-204</t>
+  </si>
+  <si>
+    <t>B-205</t>
+  </si>
+  <si>
+    <t>Teclado</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>A302</t>
+  </si>
+  <si>
+    <t>A303</t>
+  </si>
+  <si>
+    <t>A304</t>
+  </si>
+  <si>
+    <t>A305</t>
+  </si>
+  <si>
+    <t>A-302</t>
+  </si>
+  <si>
+    <t>A-303</t>
+  </si>
+  <si>
+    <t>A-304</t>
+  </si>
+  <si>
+    <t>A-305</t>
+  </si>
+  <si>
+    <t>D217</t>
+  </si>
+  <si>
+    <t>D218</t>
+  </si>
+  <si>
+    <t>Audio-visual</t>
+  </si>
+  <si>
+    <t>D-217</t>
+  </si>
+  <si>
+    <t>D-218</t>
+  </si>
+  <si>
+    <t>E-1</t>
+  </si>
+  <si>
+    <t>E-101</t>
+  </si>
+  <si>
+    <t>Orquestal</t>
+  </si>
+  <si>
+    <t>C-1</t>
+  </si>
+  <si>
+    <t>C-101</t>
+  </si>
+  <si>
+    <t>Coral</t>
+  </si>
+  <si>
+    <t>Infantil</t>
+  </si>
+  <si>
+    <t>nombre_nivel</t>
+  </si>
+  <si>
+    <t>Todos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -101,9 +263,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -141,7 +303,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -247,7 +409,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -389,7 +551,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -397,18 +559,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D79BCFC4-C30E-4D9D-B83A-425F5E1FA7CE}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -421,8 +583,386 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13">
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15">
+        <v>30</v>
+      </c>
+      <c r="D15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19">
+        <v>20</v>
+      </c>
+      <c r="D19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20">
+        <v>30</v>
+      </c>
+      <c r="D20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21">
+        <v>30</v>
+      </c>
+      <c r="D21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22">
+        <v>200</v>
+      </c>
+      <c r="D22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23">
+        <v>200</v>
+      </c>
+      <c r="D23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" t="s">
+        <v>55</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/db/Sala.xlsx
+++ b/db/Sala.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Debian\home\andrew\Documents\Proyecto_Titulacion\Timetabling\db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PosGrado\Proyecto Titulacion\Timetabling\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD5C94CA-C973-4B0A-9E8F-EB0D0C4BC324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F34F5538-5E96-4A70-A4EA-EBE2E6F8B37D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4EFD96D6-CF62-4F2F-ABEF-608699C1E5F4}"/>
+    <workbookView xWindow="2805" yWindow="2685" windowWidth="28785" windowHeight="15345" xr2:uid="{4EFD96D6-CF62-4F2F-ABEF-608699C1E5F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,14 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="33">
   <si>
     <t>sala_id</t>
   </si>
   <si>
-    <t>nombre_sala</t>
-  </si>
-  <si>
     <t>capacidad</t>
   </si>
   <si>
@@ -54,39 +51,12 @@
     <t>F-102</t>
   </si>
   <si>
-    <t>F101</t>
-  </si>
-  <si>
-    <t>F102</t>
-  </si>
-  <si>
     <t>F-103</t>
   </si>
   <si>
     <t>F-104</t>
   </si>
   <si>
-    <t>F103</t>
-  </si>
-  <si>
-    <t>F104</t>
-  </si>
-  <si>
-    <t>B101</t>
-  </si>
-  <si>
-    <t>B102</t>
-  </si>
-  <si>
-    <t>B103</t>
-  </si>
-  <si>
-    <t>B104</t>
-  </si>
-  <si>
-    <t>B105</t>
-  </si>
-  <si>
     <t>B-101</t>
   </si>
   <si>
@@ -102,21 +72,6 @@
     <t>B-105</t>
   </si>
   <si>
-    <t>B201</t>
-  </si>
-  <si>
-    <t>B202</t>
-  </si>
-  <si>
-    <t>B203</t>
-  </si>
-  <si>
-    <t>B204</t>
-  </si>
-  <si>
-    <t>B205</t>
-  </si>
-  <si>
     <t>B-201</t>
   </si>
   <si>
@@ -138,18 +93,6 @@
     <t>Regular</t>
   </si>
   <si>
-    <t>A302</t>
-  </si>
-  <si>
-    <t>A303</t>
-  </si>
-  <si>
-    <t>A304</t>
-  </si>
-  <si>
-    <t>A305</t>
-  </si>
-  <si>
     <t>A-302</t>
   </si>
   <si>
@@ -162,12 +105,6 @@
     <t>A-305</t>
   </si>
   <si>
-    <t>D217</t>
-  </si>
-  <si>
-    <t>D218</t>
-  </si>
-  <si>
     <t>Audio-visual</t>
   </si>
   <si>
@@ -177,16 +114,10 @@
     <t>D-218</t>
   </si>
   <si>
-    <t>E-1</t>
-  </si>
-  <si>
     <t>E-101</t>
   </si>
   <si>
     <t>Orquestal</t>
-  </si>
-  <si>
-    <t>C-1</t>
   </si>
   <si>
     <t>C-101</t>
@@ -263,9 +194,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -303,7 +234,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -409,7 +340,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -551,7 +482,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -559,18 +490,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D79BCFC4-C30E-4D9D-B83A-425F5E1FA7CE}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -581,384 +514,315 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B2">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
+      <c r="B5">
         <v>25</v>
       </c>
-      <c r="D2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3">
+      <c r="B6">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16">
         <v>25</v>
       </c>
-      <c r="D3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4">
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18">
+        <v>20</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20">
+        <v>30</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="B21">
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
         <v>17</v>
       </c>
-      <c r="C6">
-        <v>30</v>
-      </c>
-      <c r="D6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7">
-        <v>30</v>
-      </c>
-      <c r="D7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8">
-        <v>30</v>
-      </c>
-      <c r="D8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9">
-        <v>30</v>
-      </c>
-      <c r="D9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10">
-        <v>30</v>
-      </c>
-      <c r="D10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="D21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22">
+        <v>200</v>
+      </c>
+      <c r="C22" t="s">
         <v>27</v>
       </c>
-      <c r="C11">
-        <v>30</v>
-      </c>
-      <c r="D11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="D22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>28</v>
       </c>
-      <c r="C12">
-        <v>30</v>
-      </c>
-      <c r="D12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="B23">
+        <v>200</v>
+      </c>
+      <c r="C23" t="s">
         <v>29</v>
       </c>
-      <c r="C13">
-        <v>30</v>
-      </c>
-      <c r="D13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14">
-        <v>30</v>
-      </c>
-      <c r="D14" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15">
-        <v>30</v>
-      </c>
-      <c r="D15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17">
-        <v>20</v>
-      </c>
-      <c r="D17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18">
-        <v>20</v>
-      </c>
-      <c r="D18" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19">
-        <v>20</v>
-      </c>
-      <c r="D19" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20">
-        <v>30</v>
-      </c>
-      <c r="D20" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21">
-        <v>30</v>
-      </c>
-      <c r="D21" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22">
-        <v>200</v>
-      </c>
-      <c r="D22" t="s">
-        <v>49</v>
-      </c>
-      <c r="E22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23">
-        <v>200</v>
-      </c>
       <c r="D23" t="s">
-        <v>52</v>
-      </c>
-      <c r="E23" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
